--- a/datasets/Neha/Fist.xlsx
+++ b/datasets/Neha/Fist.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata potnis\Desktop\B.E. Project\Neha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\masters\Complete_job_docs\Projects\bionic arm\datasets\Neha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E07C729-35F3-4C37-A369-F21DDBBE1644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC8A748-F2B4-4E49-804F-D0F3E1F57C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
     <sheet name="Simple Data with Plots" sheetId="4" r:id="rId2"/>
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Move this sheet to 1st tab position to accept data</t>
   </si>
@@ -49,11 +59,17 @@
   <si>
     <t>Sensor3</t>
   </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Grasp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -206,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +292,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,24 +1392,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J509"/>
+  <dimension ref="A1:K509"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="K494" sqref="K494"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" customWidth="1"/>
     <col min="3" max="3" width="9" style="17" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="17" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="17"/>
+    <col min="8" max="10" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -1408,13 +1426,17 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>0.69341435185185185</v>
       </c>
@@ -1430,8 +1452,16 @@
       <c r="E2" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(C2:E2)</f>
+        <v>109</v>
+      </c>
+      <c r="G2" s="17" t="str">
+        <f>IF(F2&gt;200,"Fist","Relax")</f>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>0.69341435185185185</v>
       </c>
@@ -1447,8 +1477,16 @@
       <c r="E3" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">SUM(C3:E3)</f>
+        <v>107</v>
+      </c>
+      <c r="G3" s="17" t="str">
+        <f t="shared" ref="G3:G66" si="1">IF(F3&gt;200,"Fist","Relax")</f>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>0.69341435185185185</v>
       </c>
@@ -1464,8 +1502,16 @@
       <c r="E4" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>0.69341435185185185</v>
       </c>
@@ -1481,8 +1527,17 @@
       <c r="E5" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>0.693425925925926</v>
       </c>
@@ -1498,8 +1553,16 @@
       <c r="E6" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="G6" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>0.693425925925926</v>
       </c>
@@ -1515,8 +1578,16 @@
       <c r="E7" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G7" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>0.693425925925926</v>
       </c>
@@ -1532,8 +1603,16 @@
       <c r="E8" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>0.693425925925926</v>
       </c>
@@ -1549,8 +1628,16 @@
       <c r="E9" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>0.693425925925926</v>
       </c>
@@ -1566,8 +1653,16 @@
       <c r="E10" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(C10:E10)</f>
+        <v>568</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>0.69343749999999993</v>
       </c>
@@ -1583,8 +1678,16 @@
       <c r="E11" s="17">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>0.69343749999999993</v>
       </c>
@@ -1600,8 +1703,16 @@
       <c r="E12" s="17">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>0.69343749999999993</v>
       </c>
@@ -1617,8 +1728,16 @@
       <c r="E13" s="17">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>619</v>
+      </c>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>0.69343749999999993</v>
       </c>
@@ -1634,8 +1753,16 @@
       <c r="E14" s="17">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>0.69343749999999993</v>
       </c>
@@ -1651,8 +1778,16 @@
       <c r="E15" s="17">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>0.69344907407407408</v>
       </c>
@@ -1668,8 +1803,16 @@
       <c r="E16" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>0.69344907407407408</v>
       </c>
@@ -1685,8 +1828,16 @@
       <c r="E17" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>664</v>
+      </c>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>0.69344907407407408</v>
       </c>
@@ -1702,8 +1853,16 @@
       <c r="E18" s="17">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>0.69344907407407408</v>
       </c>
@@ -1719,8 +1878,16 @@
       <c r="E19" s="17">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>0.69344907407407408</v>
       </c>
@@ -1736,8 +1903,16 @@
       <c r="E20" s="17">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="G20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>0.69346064814814812</v>
       </c>
@@ -1753,8 +1928,16 @@
       <c r="E21" s="17">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>0.69346064814814812</v>
       </c>
@@ -1770,8 +1953,16 @@
       <c r="E22" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="G22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>0.69346064814814812</v>
       </c>
@@ -1787,8 +1978,16 @@
       <c r="E23" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>0.69346064814814812</v>
       </c>
@@ -1804,8 +2003,16 @@
       <c r="E24" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>0.69346064814814812</v>
       </c>
@@ -1821,8 +2028,16 @@
       <c r="E25" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>0.69347222222222227</v>
       </c>
@@ -1838,8 +2053,16 @@
       <c r="E26" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="G26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>0.69347222222222227</v>
       </c>
@@ -1855,8 +2078,16 @@
       <c r="E27" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>0.69347222222222227</v>
       </c>
@@ -1872,8 +2103,16 @@
       <c r="E28" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="G28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>0.69347222222222227</v>
       </c>
@@ -1889,8 +2128,16 @@
       <c r="E29" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G29" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>0.69347222222222227</v>
       </c>
@@ -1906,8 +2153,16 @@
       <c r="E30" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G30" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>0.6934837962962962</v>
       </c>
@@ -1923,8 +2178,16 @@
       <c r="E31" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="G31" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>0.6934837962962962</v>
       </c>
@@ -1940,8 +2203,16 @@
       <c r="E32" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="G32" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>0.6934837962962962</v>
       </c>
@@ -1957,8 +2228,16 @@
       <c r="E33" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="G33" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>0.6934837962962962</v>
       </c>
@@ -1974,8 +2253,16 @@
       <c r="E34" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="G34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>0.6934837962962962</v>
       </c>
@@ -1991,8 +2278,16 @@
       <c r="E35" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="G35" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>0.69349537037037035</v>
       </c>
@@ -2008,8 +2303,16 @@
       <c r="E36" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="G36" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>0.69349537037037035</v>
       </c>
@@ -2025,8 +2328,16 @@
       <c r="E37" s="17">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G37" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>0.69349537037037035</v>
       </c>
@@ -2042,8 +2353,16 @@
       <c r="E38" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="G38" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>0.69349537037037035</v>
       </c>
@@ -2059,8 +2378,16 @@
       <c r="E39" s="17">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="G39" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>0.69349537037037035</v>
       </c>
@@ -2076,8 +2403,16 @@
       <c r="E40" s="17">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="G40" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>0.6935069444444445</v>
       </c>
@@ -2093,8 +2428,16 @@
       <c r="E41" s="17">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="G41" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>0.6935069444444445</v>
       </c>
@@ -2110,8 +2453,16 @@
       <c r="E42" s="17">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="G42" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>0.6935069444444445</v>
       </c>
@@ -2127,8 +2478,16 @@
       <c r="E43" s="17">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="G43" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>0.6935069444444445</v>
       </c>
@@ -2144,8 +2503,16 @@
       <c r="E44" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="G44" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>0.6935069444444445</v>
       </c>
@@ -2161,8 +2528,16 @@
       <c r="E45" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>787</v>
+      </c>
+      <c r="G45" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>0.69351851851851853</v>
       </c>
@@ -2178,8 +2553,16 @@
       <c r="E46" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="G46" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>0.69351851851851853</v>
       </c>
@@ -2195,8 +2578,16 @@
       <c r="E47" s="17">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>831</v>
+      </c>
+      <c r="G47" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>0.69351851851851853</v>
       </c>
@@ -2212,8 +2603,16 @@
       <c r="E48" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="G48" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>0.69351851851851853</v>
       </c>
@@ -2229,8 +2628,16 @@
       <c r="E49" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="G49" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>0.69351851851851853</v>
       </c>
@@ -2246,8 +2653,16 @@
       <c r="E50" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="G50" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>0.69353009259259257</v>
       </c>
@@ -2263,8 +2678,16 @@
       <c r="E51" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="G51" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>0.69353009259259257</v>
       </c>
@@ -2280,8 +2703,16 @@
       <c r="E52" s="17">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="G52" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>0.69353009259259257</v>
       </c>
@@ -2297,8 +2728,16 @@
       <c r="E53" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G53" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>0.69353009259259257</v>
       </c>
@@ -2314,8 +2753,16 @@
       <c r="E54" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="G54" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>0.69353009259259257</v>
       </c>
@@ -2331,8 +2778,16 @@
       <c r="E55" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="G55" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>0.69354166666666661</v>
       </c>
@@ -2348,8 +2803,16 @@
       <c r="E56" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="G56" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>0.69354166666666661</v>
       </c>
@@ -2365,8 +2828,16 @@
       <c r="E57" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="G57" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>0.69354166666666661</v>
       </c>
@@ -2382,8 +2853,16 @@
       <c r="E58" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="G58" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>0.69354166666666661</v>
       </c>
@@ -2399,8 +2878,16 @@
       <c r="E59" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="G59" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>0.69354166666666661</v>
       </c>
@@ -2416,8 +2903,16 @@
       <c r="E60" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G60" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>0.69355324074074076</v>
       </c>
@@ -2433,8 +2928,16 @@
       <c r="E61" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="G61" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>0.69355324074074076</v>
       </c>
@@ -2450,8 +2953,16 @@
       <c r="E62" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="G62" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>0.69355324074074076</v>
       </c>
@@ -2467,8 +2978,16 @@
       <c r="E63" s="17">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="G63" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>0.69355324074074076</v>
       </c>
@@ -2484,8 +3003,16 @@
       <c r="E64" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G64" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>0.69355324074074076</v>
       </c>
@@ -2501,8 +3028,16 @@
       <c r="E65" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="G65" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>0.69356481481481491</v>
       </c>
@@ -2518,8 +3053,16 @@
       <c r="E66" s="17">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="G66" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>0.69356481481481491</v>
       </c>
@@ -2535,8 +3078,16 @@
       <c r="E67" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="2">SUM(C67:E67)</f>
+        <v>247</v>
+      </c>
+      <c r="G67" s="17" t="str">
+        <f t="shared" ref="G67:G130" si="3">IF(F67&gt;200,"Fist","Relax")</f>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>0.69356481481481491</v>
       </c>
@@ -2552,8 +3103,16 @@
       <c r="E68" s="17">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="G68" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>0.69356481481481491</v>
       </c>
@@ -2569,8 +3128,16 @@
       <c r="E69" s="17">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="G69" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>0.69356481481481491</v>
       </c>
@@ -2586,8 +3153,16 @@
       <c r="E70" s="17">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="G70" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>0.69357638888888884</v>
       </c>
@@ -2603,8 +3178,16 @@
       <c r="E71" s="17">
         <v>106</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="G71" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>0.69357638888888884</v>
       </c>
@@ -2620,8 +3203,16 @@
       <c r="E72" s="17">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>779</v>
+      </c>
+      <c r="G72" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>0.69357638888888884</v>
       </c>
@@ -2637,8 +3228,16 @@
       <c r="E73" s="17">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="G73" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>0.69357638888888884</v>
       </c>
@@ -2654,8 +3253,16 @@
       <c r="E74" s="17">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>949</v>
+      </c>
+      <c r="G74" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>0.69357638888888884</v>
       </c>
@@ -2671,8 +3278,16 @@
       <c r="E75" s="17">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>889</v>
+      </c>
+      <c r="G75" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>0.69358796296296299</v>
       </c>
@@ -2688,8 +3303,16 @@
       <c r="E76" s="17">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>859</v>
+      </c>
+      <c r="G76" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>0.69358796296296299</v>
       </c>
@@ -2705,8 +3328,16 @@
       <c r="E77" s="17">
         <v>135</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>724</v>
+      </c>
+      <c r="G77" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>0.69358796296296299</v>
       </c>
@@ -2722,8 +3353,16 @@
       <c r="E78" s="17">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="G78" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>0.69358796296296299</v>
       </c>
@@ -2739,8 +3378,16 @@
       <c r="E79" s="17">
         <v>114</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>618</v>
+      </c>
+      <c r="G79" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>0.69358796296296299</v>
       </c>
@@ -2756,8 +3403,16 @@
       <c r="E80" s="17">
         <v>98</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="G80" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>0.69359953703703703</v>
       </c>
@@ -2773,8 +3428,16 @@
       <c r="E81" s="17">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>751</v>
+      </c>
+      <c r="G81" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>0.69359953703703703</v>
       </c>
@@ -2790,8 +3453,16 @@
       <c r="E82" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>809</v>
+      </c>
+      <c r="G82" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>0.69359953703703703</v>
       </c>
@@ -2807,8 +3478,16 @@
       <c r="E83" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="G83" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>0.69359953703703703</v>
       </c>
@@ -2824,8 +3503,16 @@
       <c r="E84" s="17">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="G84" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>0.69359953703703703</v>
       </c>
@@ -2841,8 +3528,16 @@
       <c r="E85" s="17">
         <v>141</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="G85" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>0.69361111111111118</v>
       </c>
@@ -2858,8 +3553,16 @@
       <c r="E86" s="17">
         <v>176</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="G86" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <v>0.69361111111111118</v>
       </c>
@@ -2875,8 +3578,16 @@
       <c r="E87" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="G87" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>0.69361111111111118</v>
       </c>
@@ -2892,8 +3603,16 @@
       <c r="E88" s="17">
         <v>137</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="G88" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>0.69361111111111118</v>
       </c>
@@ -2909,8 +3628,16 @@
       <c r="E89" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="G89" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>0.69361111111111118</v>
       </c>
@@ -2926,8 +3653,16 @@
       <c r="E90" s="17">
         <v>117</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="G90" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>0.69362268518518511</v>
       </c>
@@ -2943,8 +3678,16 @@
       <c r="E91" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="G91" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>0.69362268518518511</v>
       </c>
@@ -2960,8 +3703,16 @@
       <c r="E92" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="G92" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>0.69362268518518511</v>
       </c>
@@ -2977,8 +3728,16 @@
       <c r="E93" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="G93" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>0.69362268518518511</v>
       </c>
@@ -2994,8 +3753,16 @@
       <c r="E94" s="17">
         <v>71</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="G94" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <v>0.69362268518518511</v>
       </c>
@@ -3011,8 +3778,16 @@
       <c r="E95" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="G95" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>0.69363425925925926</v>
       </c>
@@ -3028,8 +3803,16 @@
       <c r="E96" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="G96" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>0.69363425925925926</v>
       </c>
@@ -3045,8 +3828,16 @@
       <c r="E97" s="17">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="G97" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <v>0.69363425925925926</v>
       </c>
@@ -3062,8 +3853,16 @@
       <c r="E98" s="17">
         <v>87</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="G98" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>0.69363425925925926</v>
       </c>
@@ -3079,8 +3878,16 @@
       <c r="E99" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="G99" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>0.69363425925925926</v>
       </c>
@@ -3096,8 +3903,16 @@
       <c r="E100" s="17">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="G100" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <v>0.69364583333333341</v>
       </c>
@@ -3113,8 +3928,16 @@
       <c r="E101" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="G101" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>0.69364583333333341</v>
       </c>
@@ -3130,8 +3953,16 @@
       <c r="E102" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="G102" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <v>0.69364583333333341</v>
       </c>
@@ -3147,8 +3978,16 @@
       <c r="E103" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="G103" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>0.69364583333333341</v>
       </c>
@@ -3164,8 +4003,16 @@
       <c r="E104" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>577</v>
+      </c>
+      <c r="G104" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>0.69364583333333341</v>
       </c>
@@ -3181,8 +4028,16 @@
       <c r="E105" s="17">
         <v>122</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>653</v>
+      </c>
+      <c r="G105" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <v>0.69365740740740733</v>
       </c>
@@ -3198,8 +4053,16 @@
       <c r="E106" s="17">
         <v>128</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="G106" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="15">
         <v>0.69365740740740733</v>
       </c>
@@ -3215,8 +4078,16 @@
       <c r="E107" s="17">
         <v>168</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>845</v>
+      </c>
+      <c r="G107" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>0.69365740740740733</v>
       </c>
@@ -3232,8 +4103,16 @@
       <c r="E108" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>751</v>
+      </c>
+      <c r="G108" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="15">
         <v>0.69365740740740733</v>
       </c>
@@ -3249,8 +4128,16 @@
       <c r="E109" s="17">
         <v>144</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+      <c r="G109" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <v>0.69365740740740733</v>
       </c>
@@ -3266,8 +4153,16 @@
       <c r="E110" s="17">
         <v>199</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="G110" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="15">
         <v>0.69366898148148148</v>
       </c>
@@ -3283,8 +4178,16 @@
       <c r="E111" s="17">
         <v>193</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>987</v>
+      </c>
+      <c r="G111" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>0.69366898148148148</v>
       </c>
@@ -3300,8 +4203,16 @@
       <c r="E112" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="G112" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="15">
         <v>0.69366898148148148</v>
       </c>
@@ -3317,8 +4228,16 @@
       <c r="E113" s="17">
         <v>140</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>483</v>
+      </c>
+      <c r="G113" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="15">
         <v>0.69366898148148148</v>
       </c>
@@ -3334,8 +4253,16 @@
       <c r="E114" s="17">
         <v>192</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="G114" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="15">
         <v>0.69366898148148148</v>
       </c>
@@ -3351,8 +4278,16 @@
       <c r="E115" s="17">
         <v>266</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>1062</v>
+      </c>
+      <c r="G115" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>0.69368055555555552</v>
       </c>
@@ -3368,8 +4303,16 @@
       <c r="E116" s="17">
         <v>270</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>1090</v>
+      </c>
+      <c r="G116" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="15">
         <v>0.69368055555555552</v>
       </c>
@@ -3385,8 +4328,16 @@
       <c r="E117" s="17">
         <v>250</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>882</v>
+      </c>
+      <c r="G117" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <v>0.69368055555555552</v>
       </c>
@@ -3402,8 +4353,16 @@
       <c r="E118" s="17">
         <v>207</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="G118" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <v>0.69368055555555552</v>
       </c>
@@ -3419,8 +4378,16 @@
       <c r="E119" s="17">
         <v>197</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <f t="shared" si="2"/>
+        <v>427</v>
+      </c>
+      <c r="G119" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>0.69368055555555552</v>
       </c>
@@ -3436,8 +4403,16 @@
       <c r="E120" s="17">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="G120" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="15">
         <v>0.69369212962962967</v>
       </c>
@@ -3453,8 +4428,16 @@
       <c r="E121" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="G121" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="15">
         <v>0.69369212962962967</v>
       </c>
@@ -3470,8 +4453,16 @@
       <c r="E122" s="17">
         <v>94</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="G122" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="15">
         <v>0.69369212962962967</v>
       </c>
@@ -3487,8 +4478,16 @@
       <c r="E123" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G123" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="15">
         <v>0.69369212962962967</v>
       </c>
@@ -3504,8 +4503,16 @@
       <c r="E124" s="17">
         <v>68</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="G124" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
         <v>0.69369212962962967</v>
       </c>
@@ -3521,8 +4528,16 @@
       <c r="E125" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="G125" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="15">
         <v>0.6937037037037036</v>
       </c>
@@ -3538,8 +4553,16 @@
       <c r="E126" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="G126" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="15">
         <v>0.6937037037037036</v>
       </c>
@@ -3555,8 +4578,16 @@
       <c r="E127" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="G127" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <v>0.6937037037037036</v>
       </c>
@@ -3572,8 +4603,16 @@
       <c r="E128" s="17">
         <v>28</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="G128" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="15">
         <v>0.6937037037037036</v>
       </c>
@@ -3589,8 +4628,16 @@
       <c r="E129" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="G129" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="15">
         <v>0.6937037037037036</v>
       </c>
@@ -3606,8 +4653,16 @@
       <c r="E130" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G130" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="15">
         <v>0.69371527777777775</v>
       </c>
@@ -3623,8 +4678,16 @@
       <c r="E131" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="4">SUM(C131:E131)</f>
+        <v>104</v>
+      </c>
+      <c r="G131" s="17" t="str">
+        <f t="shared" ref="G131:G194" si="5">IF(F131&gt;200,"Fist","Relax")</f>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>0.69371527777777775</v>
       </c>
@@ -3640,8 +4703,16 @@
       <c r="E132" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="G132" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="15">
         <v>0.69371527777777775</v>
       </c>
@@ -3657,8 +4728,16 @@
       <c r="E133" s="17">
         <v>68</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="G133" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="15">
         <v>0.69371527777777775</v>
       </c>
@@ -3674,8 +4753,16 @@
       <c r="E134" s="17">
         <v>94</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="G134" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="15">
         <v>0.69371527777777775</v>
       </c>
@@ -3691,8 +4778,16 @@
       <c r="E135" s="17">
         <v>86</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="G135" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="15">
         <v>0.6937268518518519</v>
       </c>
@@ -3708,8 +4803,16 @@
       <c r="E136" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="G136" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="15">
         <v>0.6937268518518519</v>
       </c>
@@ -3725,8 +4828,16 @@
       <c r="E137" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="G137" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="15">
         <v>0.6937268518518519</v>
       </c>
@@ -3742,8 +4853,16 @@
       <c r="E138" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>387</v>
+      </c>
+      <c r="G138" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="15">
         <v>0.6937268518518519</v>
       </c>
@@ -3759,8 +4878,16 @@
       <c r="E139" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>544</v>
+      </c>
+      <c r="G139" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
         <v>0.6937268518518519</v>
       </c>
@@ -3776,8 +4903,16 @@
       <c r="E140" s="17">
         <v>127</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>697</v>
+      </c>
+      <c r="G140" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="15">
         <v>0.69373842592592594</v>
       </c>
@@ -3793,8 +4928,16 @@
       <c r="E141" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>723</v>
+      </c>
+      <c r="G141" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="15">
         <v>0.69373842592592594</v>
       </c>
@@ -3810,8 +4953,16 @@
       <c r="E142" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="G142" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="15">
         <v>0.69373842592592594</v>
       </c>
@@ -3827,8 +4978,16 @@
       <c r="E143" s="17">
         <v>153</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>761</v>
+      </c>
+      <c r="G143" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="15">
         <v>0.69373842592592594</v>
       </c>
@@ -3844,8 +5003,16 @@
       <c r="E144" s="17">
         <v>146</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>786</v>
+      </c>
+      <c r="G144" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="15">
         <v>0.69373842592592594</v>
       </c>
@@ -3861,8 +5028,16 @@
       <c r="E145" s="17">
         <v>98</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+      <c r="G145" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="15">
         <v>0.69374999999999998</v>
       </c>
@@ -3878,8 +5053,16 @@
       <c r="E146" s="17">
         <v>91</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>532</v>
+      </c>
+      <c r="G146" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="15">
         <v>0.69374999999999998</v>
       </c>
@@ -3895,8 +5078,16 @@
       <c r="E147" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>429</v>
+      </c>
+      <c r="G147" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="15">
         <v>0.69374999999999998</v>
       </c>
@@ -3912,8 +5103,16 @@
       <c r="E148" s="17">
         <v>77</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>428</v>
+      </c>
+      <c r="G148" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="15">
         <v>0.69374999999999998</v>
       </c>
@@ -3929,8 +5128,16 @@
       <c r="E149" s="17">
         <v>83</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>423</v>
+      </c>
+      <c r="G149" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="15">
         <v>0.69374999999999998</v>
       </c>
@@ -3946,8 +5153,16 @@
       <c r="E150" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>446</v>
+      </c>
+      <c r="G150" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="15">
         <v>0.69376157407407402</v>
       </c>
@@ -3963,8 +5178,16 @@
       <c r="E151" s="17">
         <v>88</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>502</v>
+      </c>
+      <c r="G151" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>0.69376157407407402</v>
       </c>
@@ -3980,8 +5203,16 @@
       <c r="E152" s="17">
         <v>103</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="G152" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="15">
         <v>0.69376157407407402</v>
       </c>
@@ -3997,8 +5228,16 @@
       <c r="E153" s="17">
         <v>95</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>497</v>
+      </c>
+      <c r="G153" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="15">
         <v>0.69376157407407402</v>
       </c>
@@ -4014,8 +5253,16 @@
       <c r="E154" s="17">
         <v>125</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>659</v>
+      </c>
+      <c r="G154" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="15">
         <v>0.69377314814814817</v>
       </c>
@@ -4031,8 +5278,16 @@
       <c r="E155" s="17">
         <v>63</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
+      <c r="G155" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="15">
         <v>0.69377314814814817</v>
       </c>
@@ -4048,8 +5303,16 @@
       <c r="E156" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="G156" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="15">
         <v>0.69377314814814817</v>
       </c>
@@ -4065,8 +5328,16 @@
       <c r="E157" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>383</v>
+      </c>
+      <c r="G157" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="15">
         <v>0.69377314814814817</v>
       </c>
@@ -4082,8 +5353,16 @@
       <c r="E158" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
+      <c r="G158" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="15">
         <v>0.69377314814814817</v>
       </c>
@@ -4099,8 +5378,16 @@
       <c r="E159" s="17">
         <v>59</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="G159" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="15">
         <v>0.69378472222222232</v>
       </c>
@@ -4116,8 +5403,16 @@
       <c r="E160" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="G160" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="15">
         <v>0.69378472222222232</v>
       </c>
@@ -4133,8 +5428,16 @@
       <c r="E161" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="G161" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="15">
         <v>0.69378472222222232</v>
       </c>
@@ -4150,8 +5453,16 @@
       <c r="E162" s="17">
         <v>29</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="G162" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="15">
         <v>0.69378472222222232</v>
       </c>
@@ -4167,8 +5478,16 @@
       <c r="E163" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="G163" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="15">
         <v>0.69378472222222232</v>
       </c>
@@ -4184,8 +5503,16 @@
       <c r="E164" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G164" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="15">
         <v>0.69379629629629624</v>
       </c>
@@ -4201,8 +5528,16 @@
       <c r="E165" s="17">
         <v>62</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G165" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="15">
         <v>0.69379629629629624</v>
       </c>
@@ -4218,8 +5553,16 @@
       <c r="E166" s="17">
         <v>53</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="G166" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="15">
         <v>0.69379629629629624</v>
       </c>
@@ -4235,8 +5578,16 @@
       <c r="E167" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="G167" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="15">
         <v>0.69379629629629624</v>
       </c>
@@ -4252,8 +5603,16 @@
       <c r="E168" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="G168" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="15">
         <v>0.69379629629629624</v>
       </c>
@@ -4269,8 +5628,16 @@
       <c r="E169" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="G169" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="15">
         <v>0.69380787037037039</v>
       </c>
@@ -4286,8 +5653,16 @@
       <c r="E170" s="17">
         <v>28</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="G170" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="15">
         <v>0.69380787037037039</v>
       </c>
@@ -4303,8 +5678,16 @@
       <c r="E171" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="G171" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="15">
         <v>0.69380787037037039</v>
       </c>
@@ -4320,8 +5703,16 @@
       <c r="E172" s="17">
         <v>66</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G172" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="15">
         <v>0.69380787037037039</v>
       </c>
@@ -4337,8 +5728,16 @@
       <c r="E173" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="G173" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="15">
         <v>0.69380787037037039</v>
       </c>
@@ -4354,8 +5753,16 @@
       <c r="E174" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="G174" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="15">
         <v>0.69381944444444443</v>
       </c>
@@ -4371,8 +5778,16 @@
       <c r="E175" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="G175" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="15">
         <v>0.69381944444444443</v>
       </c>
@@ -4388,8 +5803,16 @@
       <c r="E176" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="G176" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="15">
         <v>0.69381944444444443</v>
       </c>
@@ -4405,8 +5828,16 @@
       <c r="E177" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="G177" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="15">
         <v>0.69381944444444443</v>
       </c>
@@ -4422,8 +5853,16 @@
       <c r="E178" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="G178" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="15">
         <v>0.69381944444444443</v>
       </c>
@@ -4439,8 +5878,16 @@
       <c r="E179" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="G179" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="15">
         <v>0.69383101851851858</v>
       </c>
@@ -4456,8 +5903,16 @@
       <c r="E180" s="17">
         <v>57</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="G180" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="15">
         <v>0.69383101851851858</v>
       </c>
@@ -4473,8 +5928,16 @@
       <c r="E181" s="17">
         <v>96</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <f t="shared" si="4"/>
+        <v>344</v>
+      </c>
+      <c r="G181" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="15">
         <v>0.69383101851851858</v>
       </c>
@@ -4490,8 +5953,16 @@
       <c r="E182" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <f t="shared" si="4"/>
+        <v>537</v>
+      </c>
+      <c r="G182" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="15">
         <v>0.69383101851851858</v>
       </c>
@@ -4507,8 +5978,16 @@
       <c r="E183" s="17">
         <v>107</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <f t="shared" si="4"/>
+        <v>586</v>
+      </c>
+      <c r="G183" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="15">
         <v>0.69383101851851858</v>
       </c>
@@ -4524,8 +6003,16 @@
       <c r="E184" s="17">
         <v>119</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <f t="shared" si="4"/>
+        <v>629</v>
+      </c>
+      <c r="G184" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="15">
         <v>0.69384259259259251</v>
       </c>
@@ -4541,8 +6028,16 @@
       <c r="E185" s="17">
         <v>124</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <f t="shared" si="4"/>
+        <v>638</v>
+      </c>
+      <c r="G185" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="15">
         <v>0.69384259259259251</v>
       </c>
@@ -4558,8 +6053,16 @@
       <c r="E186" s="17">
         <v>137</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <f t="shared" si="4"/>
+        <v>644</v>
+      </c>
+      <c r="G186" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="15">
         <v>0.69384259259259251</v>
       </c>
@@ -4575,8 +6078,16 @@
       <c r="E187" s="17">
         <v>132</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <f t="shared" si="4"/>
+        <v>636</v>
+      </c>
+      <c r="G187" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="15">
         <v>0.69384259259259251</v>
       </c>
@@ -4592,8 +6103,16 @@
       <c r="E188" s="17">
         <v>140</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <f t="shared" si="4"/>
+        <v>671</v>
+      </c>
+      <c r="G188" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="15">
         <v>0.69384259259259251</v>
       </c>
@@ -4609,8 +6128,16 @@
       <c r="E189" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <f t="shared" si="4"/>
+        <v>606</v>
+      </c>
+      <c r="G189" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="15">
         <v>0.69385416666666666</v>
       </c>
@@ -4626,8 +6153,16 @@
       <c r="E190" s="17">
         <v>181</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <f t="shared" si="4"/>
+        <v>897</v>
+      </c>
+      <c r="G190" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="15">
         <v>0.69385416666666666</v>
       </c>
@@ -4643,8 +6178,16 @@
       <c r="E191" s="17">
         <v>152</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <f t="shared" si="4"/>
+        <v>713</v>
+      </c>
+      <c r="G191" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="15">
         <v>0.69385416666666666</v>
       </c>
@@ -4660,8 +6203,16 @@
       <c r="E192" s="17">
         <v>116</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <f t="shared" si="4"/>
+        <v>419</v>
+      </c>
+      <c r="G192" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="15">
         <v>0.69385416666666666</v>
       </c>
@@ -4677,8 +6228,16 @@
       <c r="E193" s="17">
         <v>78</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="G193" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="15">
         <v>0.69385416666666666</v>
       </c>
@@ -4694,8 +6253,16 @@
       <c r="E194" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="G194" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="15">
         <v>0.69386574074074081</v>
       </c>
@@ -4711,8 +6278,16 @@
       <c r="E195" s="17">
         <v>62</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="6">SUM(C195:E195)</f>
+        <v>204</v>
+      </c>
+      <c r="G195" s="17" t="str">
+        <f t="shared" ref="G195:G258" si="7">IF(F195&gt;200,"Fist","Relax")</f>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="15">
         <v>0.69386574074074081</v>
       </c>
@@ -4728,8 +6303,16 @@
       <c r="E196" s="17">
         <v>49</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="G196" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="15">
         <v>0.69386574074074081</v>
       </c>
@@ -4745,8 +6328,16 @@
       <c r="E197" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="G197" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="15">
         <v>0.69386574074074081</v>
       </c>
@@ -4762,8 +6353,16 @@
       <c r="E198" s="17">
         <v>53</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="G198" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="15">
         <v>0.69386574074074081</v>
       </c>
@@ -4779,8 +6378,16 @@
       <c r="E199" s="17">
         <v>72</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="G199" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="15">
         <v>0.69387731481481474</v>
       </c>
@@ -4796,8 +6403,16 @@
       <c r="E200" s="17">
         <v>68</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <f t="shared" si="6"/>
+        <v>199</v>
+      </c>
+      <c r="G200" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="15">
         <v>0.69387731481481474</v>
       </c>
@@ -4813,8 +6428,16 @@
       <c r="E201" s="17">
         <v>63</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="G201" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="15">
         <v>0.69387731481481474</v>
       </c>
@@ -4830,8 +6453,16 @@
       <c r="E202" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="G202" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="15">
         <v>0.69387731481481474</v>
       </c>
@@ -4847,8 +6478,16 @@
       <c r="E203" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="G203" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="15">
         <v>0.69387731481481474</v>
       </c>
@@ -4864,8 +6503,16 @@
       <c r="E204" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="G204" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="15">
         <v>0.69388888888888889</v>
       </c>
@@ -4881,8 +6528,16 @@
       <c r="E205" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="G205" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="15">
         <v>0.69388888888888889</v>
       </c>
@@ -4898,8 +6553,16 @@
       <c r="E206" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="G206" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="15">
         <v>0.69388888888888889</v>
       </c>
@@ -4915,8 +6578,16 @@
       <c r="E207" s="17">
         <v>54</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="G207" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="15">
         <v>0.69388888888888889</v>
       </c>
@@ -4932,8 +6603,16 @@
       <c r="E208" s="17">
         <v>56</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="G208" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="15">
         <v>0.69388888888888889</v>
       </c>
@@ -4949,8 +6628,16 @@
       <c r="E209" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="G209" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="15">
         <v>0.69390046296296293</v>
       </c>
@@ -4966,8 +6653,16 @@
       <c r="E210" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="G210" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="15">
         <v>0.69390046296296293</v>
       </c>
@@ -4983,8 +6678,16 @@
       <c r="E211" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G211" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="15">
         <v>0.69390046296296293</v>
       </c>
@@ -5000,8 +6703,16 @@
       <c r="E212" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="G212" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="15">
         <v>0.69390046296296293</v>
       </c>
@@ -5017,8 +6728,16 @@
       <c r="E213" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="G213" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="15">
         <v>0.69390046296296293</v>
       </c>
@@ -5034,8 +6753,16 @@
       <c r="E214" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <f t="shared" si="6"/>
+        <v>201</v>
+      </c>
+      <c r="G214" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="15">
         <v>0.69391203703703708</v>
       </c>
@@ -5051,8 +6778,16 @@
       <c r="E215" s="17">
         <v>104</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
+      <c r="G215" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="15">
         <v>0.69391203703703708</v>
       </c>
@@ -5068,8 +6803,16 @@
       <c r="E216" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <f t="shared" si="6"/>
+        <v>611</v>
+      </c>
+      <c r="G216" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="15">
         <v>0.69391203703703708</v>
       </c>
@@ -5085,8 +6828,16 @@
       <c r="E217" s="17">
         <v>173</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <f t="shared" si="6"/>
+        <v>788</v>
+      </c>
+      <c r="G217" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="15">
         <v>0.69391203703703708</v>
       </c>
@@ -5102,8 +6853,16 @@
       <c r="E218" s="17">
         <v>163</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <f t="shared" si="6"/>
+        <v>848</v>
+      </c>
+      <c r="G218" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="15">
         <v>0.69391203703703708</v>
       </c>
@@ -5119,8 +6878,16 @@
       <c r="E219" s="17">
         <v>184</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <f t="shared" si="6"/>
+        <v>1003</v>
+      </c>
+      <c r="G219" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="15">
         <v>0.69392361111111101</v>
       </c>
@@ -5136,8 +6903,16 @@
       <c r="E220" s="17">
         <v>174</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <f t="shared" si="6"/>
+        <v>936</v>
+      </c>
+      <c r="G220" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="15">
         <v>0.69392361111111101</v>
       </c>
@@ -5153,8 +6928,16 @@
       <c r="E221" s="17">
         <v>206</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <f t="shared" si="6"/>
+        <v>957</v>
+      </c>
+      <c r="G221" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="15">
         <v>0.69392361111111101</v>
       </c>
@@ -5170,8 +6953,16 @@
       <c r="E222" s="17">
         <v>149</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <f t="shared" si="6"/>
+        <v>604</v>
+      </c>
+      <c r="G222" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="15">
         <v>0.69392361111111101</v>
       </c>
@@ -5187,8 +6978,16 @@
       <c r="E223" s="17">
         <v>90</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="G223" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="15">
         <v>0.69392361111111101</v>
       </c>
@@ -5204,8 +7003,16 @@
       <c r="E224" s="17">
         <v>84</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="G224" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="15">
         <v>0.69393518518518515</v>
       </c>
@@ -5221,8 +7028,16 @@
       <c r="E225" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="G225" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="15">
         <v>0.69393518518518515</v>
       </c>
@@ -5238,8 +7053,16 @@
       <c r="E226" s="17">
         <v>68</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="G226" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="15">
         <v>0.69393518518518515</v>
       </c>
@@ -5255,8 +7078,16 @@
       <c r="E227" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <f t="shared" si="6"/>
+        <v>305</v>
+      </c>
+      <c r="G227" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="15">
         <v>0.69393518518518515</v>
       </c>
@@ -5272,8 +7103,16 @@
       <c r="E228" s="17">
         <v>59</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="G228" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="15">
         <v>0.69393518518518515</v>
       </c>
@@ -5289,8 +7128,16 @@
       <c r="E229" s="17">
         <v>88</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+      <c r="G229" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="15">
         <v>0.6939467592592593</v>
       </c>
@@ -5306,8 +7153,16 @@
       <c r="E230" s="17">
         <v>105</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="G230" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="15">
         <v>0.6939467592592593</v>
       </c>
@@ -5323,8 +7178,16 @@
       <c r="E231" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <f t="shared" si="6"/>
+        <v>623</v>
+      </c>
+      <c r="G231" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="15">
         <v>0.6939467592592593</v>
       </c>
@@ -5340,8 +7203,16 @@
       <c r="E232" s="17">
         <v>120</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <f t="shared" si="6"/>
+        <v>541</v>
+      </c>
+      <c r="G232" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="15">
         <v>0.6939467592592593</v>
       </c>
@@ -5357,8 +7228,16 @@
       <c r="E233" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="G233" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="15">
         <v>0.6939467592592593</v>
       </c>
@@ -5374,8 +7253,16 @@
       <c r="E234" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <f t="shared" si="6"/>
+        <v>235</v>
+      </c>
+      <c r="G234" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="15">
         <v>0.69395833333333334</v>
       </c>
@@ -5391,8 +7278,16 @@
       <c r="E235" s="17">
         <v>61</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="G235" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="15">
         <v>0.69395833333333334</v>
       </c>
@@ -5408,8 +7303,16 @@
       <c r="E236" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="G236" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="15">
         <v>0.69395833333333334</v>
       </c>
@@ -5425,8 +7328,16 @@
       <c r="E237" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="G237" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="15">
         <v>0.69395833333333334</v>
       </c>
@@ -5442,8 +7353,16 @@
       <c r="E238" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="G238" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="15">
         <v>0.69395833333333334</v>
       </c>
@@ -5459,8 +7378,16 @@
       <c r="E239" s="17">
         <v>57</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="G239" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="15">
         <v>0.69396990740740738</v>
       </c>
@@ -5476,8 +7403,16 @@
       <c r="E240" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <f t="shared" si="6"/>
+        <v>301</v>
+      </c>
+      <c r="G240" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="15">
         <v>0.69396990740740738</v>
       </c>
@@ -5493,8 +7428,16 @@
       <c r="E241" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <f t="shared" si="6"/>
+        <v>315</v>
+      </c>
+      <c r="G241" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="15">
         <v>0.69396990740740738</v>
       </c>
@@ -5510,8 +7453,16 @@
       <c r="E242" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <f t="shared" si="6"/>
+        <v>331</v>
+      </c>
+      <c r="G242" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="15">
         <v>0.69396990740740738</v>
       </c>
@@ -5527,8 +7478,16 @@
       <c r="E243" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <f t="shared" si="6"/>
+        <v>313</v>
+      </c>
+      <c r="G243" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="15">
         <v>0.69396990740740738</v>
       </c>
@@ -5544,8 +7503,16 @@
       <c r="E244" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="G244" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="15">
         <v>0.69398148148148142</v>
       </c>
@@ -5561,8 +7528,16 @@
       <c r="E245" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="G245" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="15">
         <v>0.69398148148148142</v>
       </c>
@@ -5578,8 +7553,16 @@
       <c r="E246" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="G246" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="15">
         <v>0.69398148148148142</v>
       </c>
@@ -5595,8 +7578,16 @@
       <c r="E247" s="17">
         <v>45</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G247" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="15">
         <v>0.69398148148148142</v>
       </c>
@@ -5612,8 +7603,16 @@
       <c r="E248" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <f t="shared" si="6"/>
+        <v>227</v>
+      </c>
+      <c r="G248" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="15">
         <v>0.69398148148148142</v>
       </c>
@@ -5629,8 +7628,16 @@
       <c r="E249" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="G249" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="15">
         <v>0.69399305555555557</v>
       </c>
@@ -5646,8 +7653,16 @@
       <c r="E250" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="G250" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="15">
         <v>0.69399305555555557</v>
       </c>
@@ -5663,8 +7678,16 @@
       <c r="E251" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="G251" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="15">
         <v>0.69399305555555557</v>
       </c>
@@ -5680,8 +7703,16 @@
       <c r="E252" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="G252" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="15">
         <v>0.69399305555555557</v>
       </c>
@@ -5697,8 +7728,16 @@
       <c r="E253" s="17">
         <v>76</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <f t="shared" si="6"/>
+        <v>383</v>
+      </c>
+      <c r="G253" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="15">
         <v>0.69399305555555557</v>
       </c>
@@ -5714,8 +7753,16 @@
       <c r="E254" s="17">
         <v>104</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="G254" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="15">
         <v>0.69400462962962972</v>
       </c>
@@ -5731,8 +7778,16 @@
       <c r="E255" s="17">
         <v>112</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <f t="shared" si="6"/>
+        <v>644</v>
+      </c>
+      <c r="G255" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="15">
         <v>0.69400462962962972</v>
       </c>
@@ -5748,8 +7803,16 @@
       <c r="E256" s="17">
         <v>144</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <f t="shared" si="6"/>
+        <v>701</v>
+      </c>
+      <c r="G256" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="15">
         <v>0.69400462962962972</v>
       </c>
@@ -5765,8 +7828,16 @@
       <c r="E257" s="17">
         <v>147</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <f t="shared" si="6"/>
+        <v>767</v>
+      </c>
+      <c r="G257" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="15">
         <v>0.69400462962962972</v>
       </c>
@@ -5782,8 +7853,16 @@
       <c r="E258" s="17">
         <v>159</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <f t="shared" si="6"/>
+        <v>702</v>
+      </c>
+      <c r="G258" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="15">
         <v>0.69400462962962972</v>
       </c>
@@ -5799,8 +7878,16 @@
       <c r="E259" s="17">
         <v>176</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <f t="shared" ref="F259:F322" si="8">SUM(C259:E259)</f>
+        <v>721</v>
+      </c>
+      <c r="G259" s="17" t="str">
+        <f t="shared" ref="G259:G322" si="9">IF(F259&gt;200,"Fist","Relax")</f>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="15">
         <v>0.69401620370370365</v>
       </c>
@@ -5816,8 +7903,16 @@
       <c r="E260" s="17">
         <v>145</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <f t="shared" si="8"/>
+        <v>644</v>
+      </c>
+      <c r="G260" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="15">
         <v>0.69401620370370365</v>
       </c>
@@ -5833,8 +7928,16 @@
       <c r="E261" s="17">
         <v>108</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+      <c r="G261" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="15">
         <v>0.69401620370370365</v>
       </c>
@@ -5850,8 +7953,16 @@
       <c r="E262" s="17">
         <v>67</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="G262" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="15">
         <v>0.69401620370370365</v>
       </c>
@@ -5867,8 +7978,16 @@
       <c r="E263" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="G263" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="15">
         <v>0.69401620370370365</v>
       </c>
@@ -5884,8 +8003,16 @@
       <c r="E264" s="17">
         <v>61</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="G264" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="15">
         <v>0.6940277777777778</v>
       </c>
@@ -5901,8 +8028,16 @@
       <c r="E265" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="G265" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="15">
         <v>0.6940277777777778</v>
       </c>
@@ -5918,8 +8053,16 @@
       <c r="E266" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="G266" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="15">
         <v>0.6940277777777778</v>
       </c>
@@ -5935,8 +8078,16 @@
       <c r="E267" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="G267" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="15">
         <v>0.6940277777777778</v>
       </c>
@@ -5952,8 +8103,16 @@
       <c r="E268" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
+      <c r="G268" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="15">
         <v>0.6940277777777778</v>
       </c>
@@ -5969,8 +8128,16 @@
       <c r="E269" s="17">
         <v>56</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <f t="shared" si="8"/>
+        <v>358</v>
+      </c>
+      <c r="G269" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="15">
         <v>0.69403935185185184</v>
       </c>
@@ -5986,8 +8153,16 @@
       <c r="E270" s="17">
         <v>121</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+      <c r="G270" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="15">
         <v>0.69403935185185184</v>
       </c>
@@ -6003,8 +8178,16 @@
       <c r="E271" s="17">
         <v>183</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <f t="shared" si="8"/>
+        <v>510</v>
+      </c>
+      <c r="G271" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="15">
         <v>0.69403935185185184</v>
       </c>
@@ -6020,8 +8203,16 @@
       <c r="E272" s="17">
         <v>231</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <f t="shared" si="8"/>
+        <v>896</v>
+      </c>
+      <c r="G272" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="15">
         <v>0.69403935185185184</v>
       </c>
@@ -6037,8 +8228,16 @@
       <c r="E273" s="17">
         <v>279</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <f t="shared" si="8"/>
+        <v>1026</v>
+      </c>
+      <c r="G273" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="15">
         <v>0.69403935185185184</v>
       </c>
@@ -6054,8 +8253,16 @@
       <c r="E274" s="17">
         <v>289</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <f t="shared" si="8"/>
+        <v>994</v>
+      </c>
+      <c r="G274" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="15">
         <v>0.69405092592592599</v>
       </c>
@@ -6071,8 +8278,16 @@
       <c r="E275" s="17">
         <v>257</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <f t="shared" si="8"/>
+        <v>763</v>
+      </c>
+      <c r="G275" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="15">
         <v>0.69405092592592599</v>
       </c>
@@ -6088,8 +8303,16 @@
       <c r="E276" s="17">
         <v>156</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+      <c r="G276" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="15">
         <v>0.69405092592592599</v>
       </c>
@@ -6105,8 +8328,16 @@
       <c r="E277" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="G277" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="15">
         <v>0.69405092592592599</v>
       </c>
@@ -6122,8 +8353,16 @@
       <c r="E278" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="G278" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="15">
         <v>0.69405092592592599</v>
       </c>
@@ -6139,8 +8378,16 @@
       <c r="E279" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <f t="shared" si="8"/>
+        <v>131</v>
+      </c>
+      <c r="G279" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="15">
         <v>0.69406249999999992</v>
       </c>
@@ -6156,8 +8403,16 @@
       <c r="E280" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="G280" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="15">
         <v>0.69406249999999992</v>
       </c>
@@ -6173,8 +8428,16 @@
       <c r="E281" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="G281" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="15">
         <v>0.69406249999999992</v>
       </c>
@@ -6190,8 +8453,16 @@
       <c r="E282" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="G282" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="15">
         <v>0.69406249999999992</v>
       </c>
@@ -6207,8 +8478,16 @@
       <c r="E283" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="G283" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="15">
         <v>0.69406249999999992</v>
       </c>
@@ -6224,8 +8503,16 @@
       <c r="E284" s="17">
         <v>63</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+      <c r="G284" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="15">
         <v>0.69407407407407407</v>
       </c>
@@ -6241,8 +8528,16 @@
       <c r="E285" s="17">
         <v>89</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <f t="shared" si="8"/>
+        <v>295</v>
+      </c>
+      <c r="G285" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="15">
         <v>0.69407407407407407</v>
       </c>
@@ -6258,8 +8553,16 @@
       <c r="E286" s="17">
         <v>104</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <f t="shared" si="8"/>
+        <v>412</v>
+      </c>
+      <c r="G286" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="15">
         <v>0.69407407407407407</v>
       </c>
@@ -6275,8 +8578,16 @@
       <c r="E287" s="17">
         <v>109</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <f t="shared" si="8"/>
+        <v>393</v>
+      </c>
+      <c r="G287" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="15">
         <v>0.69407407407407407</v>
       </c>
@@ -6292,8 +8603,16 @@
       <c r="E288" s="17">
         <v>106</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <f t="shared" si="8"/>
+        <v>615</v>
+      </c>
+      <c r="G288" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="15">
         <v>0.69407407407407407</v>
       </c>
@@ -6309,8 +8628,16 @@
       <c r="E289" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <f t="shared" si="8"/>
+        <v>673</v>
+      </c>
+      <c r="G289" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="15">
         <v>0.69408564814814822</v>
       </c>
@@ -6326,8 +8653,16 @@
       <c r="E290" s="17">
         <v>143</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <f t="shared" si="8"/>
+        <v>662</v>
+      </c>
+      <c r="G290" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="15">
         <v>0.69408564814814822</v>
       </c>
@@ -6343,8 +8678,16 @@
       <c r="E291" s="17">
         <v>175</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <f t="shared" si="8"/>
+        <v>722</v>
+      </c>
+      <c r="G291" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="15">
         <v>0.69408564814814822</v>
       </c>
@@ -6360,8 +8703,16 @@
       <c r="E292" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="G292" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="15">
         <v>0.69408564814814822</v>
       </c>
@@ -6377,8 +8728,16 @@
       <c r="E293" s="17">
         <v>207</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <f t="shared" si="8"/>
+        <v>632</v>
+      </c>
+      <c r="G293" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="15">
         <v>0.69408564814814822</v>
       </c>
@@ -6394,8 +8753,16 @@
       <c r="E294" s="17">
         <v>94</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <f t="shared" si="8"/>
+        <v>363</v>
+      </c>
+      <c r="G294" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="15">
         <v>0.69409722222222225</v>
       </c>
@@ -6411,8 +8778,16 @@
       <c r="E295" s="17">
         <v>95</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <f t="shared" si="8"/>
+        <v>293</v>
+      </c>
+      <c r="G295" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="15">
         <v>0.69409722222222225</v>
       </c>
@@ -6428,8 +8803,16 @@
       <c r="E296" s="17">
         <v>93</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="G296" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="15">
         <v>0.69409722222222225</v>
       </c>
@@ -6445,8 +8828,16 @@
       <c r="E297" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="G297" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="15">
         <v>0.69409722222222225</v>
       </c>
@@ -6462,8 +8853,16 @@
       <c r="E298" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="G298" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="15">
         <v>0.69409722222222225</v>
       </c>
@@ -6479,8 +8878,16 @@
       <c r="E299" s="17">
         <v>53</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="G299" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="15">
         <v>0.69410879629629629</v>
       </c>
@@ -6496,8 +8903,16 @@
       <c r="E300" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="G300" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="15">
         <v>0.69410879629629629</v>
       </c>
@@ -6513,8 +8928,16 @@
       <c r="E301" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="G301" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="15">
         <v>0.69410879629629629</v>
       </c>
@@ -6530,8 +8953,16 @@
       <c r="E302" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <f t="shared" si="8"/>
+        <v>248</v>
+      </c>
+      <c r="G302" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="15">
         <v>0.69410879629629629</v>
       </c>
@@ -6547,8 +8978,16 @@
       <c r="E303" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <f t="shared" si="8"/>
+        <v>310</v>
+      </c>
+      <c r="G303" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="15">
         <v>0.69410879629629629</v>
       </c>
@@ -6564,8 +9003,16 @@
       <c r="E304" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="G304" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="15">
         <v>0.69412037037037033</v>
       </c>
@@ -6581,8 +9028,16 @@
       <c r="E305" s="17">
         <v>75</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="G305" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="15">
         <v>0.69412037037037033</v>
       </c>
@@ -6598,8 +9053,16 @@
       <c r="E306" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="G306" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="15">
         <v>0.69412037037037033</v>
       </c>
@@ -6615,8 +9078,16 @@
       <c r="E307" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
+      <c r="G307" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="15">
         <v>0.69412037037037033</v>
       </c>
@@ -6632,8 +9103,16 @@
       <c r="E308" s="17">
         <v>109</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <f t="shared" si="8"/>
+        <v>320</v>
+      </c>
+      <c r="G308" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="15">
         <v>0.69412037037037033</v>
       </c>
@@ -6649,8 +9128,16 @@
       <c r="E309" s="17">
         <v>121</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <f t="shared" si="8"/>
+        <v>306</v>
+      </c>
+      <c r="G309" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="15">
         <v>0.69413194444444448</v>
       </c>
@@ -6666,8 +9153,16 @@
       <c r="E310" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="G310" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="15">
         <v>0.69413194444444448</v>
       </c>
@@ -6683,8 +9178,16 @@
       <c r="E311" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="G311" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="15">
         <v>0.69413194444444448</v>
       </c>
@@ -6700,8 +9203,16 @@
       <c r="E312" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="G312" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="15">
         <v>0.69413194444444448</v>
       </c>
@@ -6717,8 +9228,16 @@
       <c r="E313" s="17">
         <v>41</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="G313" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="15">
         <v>0.69414351851851863</v>
       </c>
@@ -6734,8 +9253,16 @@
       <c r="E314" s="17">
         <v>54</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="G314" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="15">
         <v>0.69414351851851863</v>
       </c>
@@ -6751,8 +9278,16 @@
       <c r="E315" s="17">
         <v>65</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="G315" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="15">
         <v>0.69414351851851863</v>
       </c>
@@ -6768,8 +9303,16 @@
       <c r="E316" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="G316" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="15">
         <v>0.69414351851851863</v>
       </c>
@@ -6785,8 +9328,16 @@
       <c r="E317" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <f t="shared" si="8"/>
+        <v>282</v>
+      </c>
+      <c r="G317" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="15">
         <v>0.69414351851851863</v>
       </c>
@@ -6802,8 +9353,16 @@
       <c r="E318" s="17">
         <v>105</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <f t="shared" si="8"/>
+        <v>298</v>
+      </c>
+      <c r="G318" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="15">
         <v>0.69415509259259256</v>
       </c>
@@ -6819,8 +9378,16 @@
       <c r="E319" s="17">
         <v>87</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <f t="shared" si="8"/>
+        <v>279</v>
+      </c>
+      <c r="G319" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="15">
         <v>0.69415509259259256</v>
       </c>
@@ -6836,8 +9403,16 @@
       <c r="E320" s="17">
         <v>59</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="G320" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="15">
         <v>0.69415509259259256</v>
       </c>
@@ -6853,8 +9428,16 @@
       <c r="E321" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="G321" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="15">
         <v>0.69415509259259256</v>
       </c>
@@ -6870,8 +9453,16 @@
       <c r="E322" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="G322" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="15">
         <v>0.69415509259259256</v>
       </c>
@@ -6887,8 +9478,16 @@
       <c r="E323" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <f t="shared" ref="F323:F386" si="10">SUM(C323:E323)</f>
+        <v>200</v>
+      </c>
+      <c r="G323" s="17" t="str">
+        <f t="shared" ref="G323:G386" si="11">IF(F323&gt;200,"Fist","Relax")</f>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="15">
         <v>0.69416666666666671</v>
       </c>
@@ -6904,8 +9503,16 @@
       <c r="E324" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="G324" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="15">
         <v>0.69416666666666671</v>
       </c>
@@ -6921,8 +9528,16 @@
       <c r="E325" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="G325" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="15">
         <v>0.69416666666666671</v>
       </c>
@@ -6938,8 +9553,16 @@
       <c r="E326" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="G326" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="15">
         <v>0.69416666666666671</v>
       </c>
@@ -6955,8 +9578,16 @@
       <c r="E327" s="17">
         <v>76</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="G327" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="15">
         <v>0.69416666666666671</v>
       </c>
@@ -6972,8 +9603,16 @@
       <c r="E328" s="17">
         <v>66</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="G328" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="15">
         <v>0.69417824074074075</v>
       </c>
@@ -6989,8 +9628,16 @@
       <c r="E329" s="17">
         <v>68</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="G329" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="15">
         <v>0.69417824074074075</v>
       </c>
@@ -7006,8 +9653,16 @@
       <c r="E330" s="17">
         <v>75</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <f t="shared" si="10"/>
+        <v>252</v>
+      </c>
+      <c r="G330" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="15">
         <v>0.69417824074074075</v>
       </c>
@@ -7023,8 +9678,16 @@
       <c r="E331" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <f t="shared" si="10"/>
+        <v>441</v>
+      </c>
+      <c r="G331" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="15">
         <v>0.69417824074074075</v>
       </c>
@@ -7040,8 +9703,16 @@
       <c r="E332" s="17">
         <v>196</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <f t="shared" si="10"/>
+        <v>557</v>
+      </c>
+      <c r="G332" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="15">
         <v>0.69417824074074075</v>
       </c>
@@ -7057,8 +9728,16 @@
       <c r="E333" s="17">
         <v>127</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <f t="shared" si="10"/>
+        <v>551</v>
+      </c>
+      <c r="G333" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="15">
         <v>0.69418981481481479</v>
       </c>
@@ -7074,8 +9753,16 @@
       <c r="E334" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <f t="shared" si="10"/>
+        <v>615</v>
+      </c>
+      <c r="G334" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="15">
         <v>0.69418981481481479</v>
       </c>
@@ -7091,8 +9778,16 @@
       <c r="E335" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <f t="shared" si="10"/>
+        <v>778</v>
+      </c>
+      <c r="G335" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="15">
         <v>0.69418981481481479</v>
       </c>
@@ -7108,8 +9803,16 @@
       <c r="E336" s="17">
         <v>135</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <f t="shared" si="10"/>
+        <v>690</v>
+      </c>
+      <c r="G336" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="15">
         <v>0.69418981481481479</v>
       </c>
@@ -7125,8 +9828,16 @@
       <c r="E337" s="17">
         <v>133</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <f t="shared" si="10"/>
+        <v>683</v>
+      </c>
+      <c r="G337" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="15">
         <v>0.69418981481481479</v>
       </c>
@@ -7142,8 +9853,16 @@
       <c r="E338" s="17">
         <v>126</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <f t="shared" si="10"/>
+        <v>623</v>
+      </c>
+      <c r="G338" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="15">
         <v>0.69420138888888883</v>
       </c>
@@ -7159,8 +9878,16 @@
       <c r="E339" s="17">
         <v>129</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <f t="shared" si="10"/>
+        <v>713</v>
+      </c>
+      <c r="G339" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="15">
         <v>0.69420138888888883</v>
       </c>
@@ -7176,8 +9903,16 @@
       <c r="E340" s="17">
         <v>125</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <f t="shared" si="10"/>
+        <v>544</v>
+      </c>
+      <c r="G340" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="15">
         <v>0.69420138888888883</v>
       </c>
@@ -7193,8 +9928,16 @@
       <c r="E341" s="17">
         <v>93</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <f t="shared" si="10"/>
+        <v>384</v>
+      </c>
+      <c r="G341" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="15">
         <v>0.69420138888888883</v>
       </c>
@@ -7210,8 +9953,16 @@
       <c r="E342" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <f t="shared" si="10"/>
+        <v>234</v>
+      </c>
+      <c r="G342" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="15">
         <v>0.69420138888888883</v>
       </c>
@@ -7227,8 +9978,16 @@
       <c r="E343" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="G343" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="15">
         <v>0.69421296296296298</v>
       </c>
@@ -7244,8 +10003,16 @@
       <c r="E344" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="G344" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="15">
         <v>0.69421296296296298</v>
       </c>
@@ -7261,8 +10028,16 @@
       <c r="E345" s="17">
         <v>62</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="G345" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="15">
         <v>0.69421296296296298</v>
       </c>
@@ -7278,8 +10053,16 @@
       <c r="E346" s="17">
         <v>72</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <f t="shared" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="G346" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="15">
         <v>0.69421296296296298</v>
       </c>
@@ -7295,8 +10078,16 @@
       <c r="E347" s="17">
         <v>79</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <f t="shared" si="10"/>
+        <v>251</v>
+      </c>
+      <c r="G347" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="15">
         <v>0.69421296296296298</v>
       </c>
@@ -7312,8 +10103,16 @@
       <c r="E348" s="17">
         <v>82</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <f t="shared" si="10"/>
+        <v>253</v>
+      </c>
+      <c r="G348" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="15">
         <v>0.69422453703703713</v>
       </c>
@@ -7329,8 +10128,16 @@
       <c r="E349" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <f t="shared" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="G349" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="15">
         <v>0.69422453703703713</v>
       </c>
@@ -7346,8 +10153,16 @@
       <c r="E350" s="17">
         <v>63</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <f t="shared" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="G350" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="15">
         <v>0.69422453703703713</v>
       </c>
@@ -7363,8 +10178,16 @@
       <c r="E351" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="G351" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="15">
         <v>0.69422453703703713</v>
       </c>
@@ -7380,8 +10203,16 @@
       <c r="E352" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="G352" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="15">
         <v>0.69422453703703713</v>
       </c>
@@ -7397,8 +10228,16 @@
       <c r="E353" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <f t="shared" si="10"/>
+        <v>221</v>
+      </c>
+      <c r="G353" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="15">
         <v>0.69423611111111105</v>
       </c>
@@ -7414,8 +10253,16 @@
       <c r="E354" s="17">
         <v>57</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <f t="shared" si="10"/>
+        <v>195</v>
+      </c>
+      <c r="G354" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="15">
         <v>0.69423611111111105</v>
       </c>
@@ -7431,8 +10278,16 @@
       <c r="E355" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="G355" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="15">
         <v>0.69423611111111105</v>
       </c>
@@ -7448,8 +10303,16 @@
       <c r="E356" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="G356" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="15">
         <v>0.69423611111111105</v>
       </c>
@@ -7465,8 +10328,16 @@
       <c r="E357" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="G357" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="15">
         <v>0.69423611111111105</v>
       </c>
@@ -7482,8 +10353,16 @@
       <c r="E358" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="G358" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="15">
         <v>0.6942476851851852</v>
       </c>
@@ -7499,8 +10378,16 @@
       <c r="E359" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
+      <c r="G359" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="15">
         <v>0.6942476851851852</v>
       </c>
@@ -7516,8 +10403,16 @@
       <c r="E360" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="G360" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="15">
         <v>0.6942476851851852</v>
       </c>
@@ -7533,8 +10428,16 @@
       <c r="E361" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+      <c r="G361" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="15">
         <v>0.6942476851851852</v>
       </c>
@@ -7550,8 +10453,16 @@
       <c r="E362" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="G362" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="15">
         <v>0.6942476851851852</v>
       </c>
@@ -7567,8 +10478,16 @@
       <c r="E363" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <f t="shared" si="10"/>
+        <v>152</v>
+      </c>
+      <c r="G363" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="15">
         <v>0.69425925925925924</v>
       </c>
@@ -7584,8 +10503,16 @@
       <c r="E364" s="17">
         <v>110</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
+      <c r="G364" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="15">
         <v>0.69425925925925924</v>
       </c>
@@ -7601,8 +10528,16 @@
       <c r="E365" s="17">
         <v>150</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <f t="shared" si="10"/>
+        <v>459</v>
+      </c>
+      <c r="G365" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="15">
         <v>0.69425925925925924</v>
       </c>
@@ -7618,8 +10553,16 @@
       <c r="E366" s="17">
         <v>139</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <f t="shared" si="10"/>
+        <v>688</v>
+      </c>
+      <c r="G366" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="15">
         <v>0.69425925925925924</v>
       </c>
@@ -7635,8 +10578,16 @@
       <c r="E367" s="17">
         <v>164</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <f t="shared" si="10"/>
+        <v>717</v>
+      </c>
+      <c r="G367" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
         <v>0.69425925925925924</v>
       </c>
@@ -7652,8 +10603,16 @@
       <c r="E368" s="17">
         <v>144</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+      <c r="G368" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="15">
         <v>0.69427083333333339</v>
       </c>
@@ -7669,8 +10628,16 @@
       <c r="E369" s="17">
         <v>110</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <f t="shared" si="10"/>
+        <v>532</v>
+      </c>
+      <c r="G369" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="15">
         <v>0.69427083333333339</v>
       </c>
@@ -7686,8 +10653,16 @@
       <c r="E370" s="17">
         <v>98</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="G370" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="15">
         <v>0.69427083333333339</v>
       </c>
@@ -7703,8 +10678,16 @@
       <c r="E371" s="17">
         <v>84</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <f t="shared" si="10"/>
+        <v>351</v>
+      </c>
+      <c r="G371" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="15">
         <v>0.69427083333333339</v>
       </c>
@@ -7720,8 +10703,16 @@
       <c r="E372" s="17">
         <v>85</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="G372" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="15">
         <v>0.69427083333333339</v>
       </c>
@@ -7737,8 +10728,16 @@
       <c r="E373" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="G373" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="15">
         <v>0.69428240740740732</v>
       </c>
@@ -7754,8 +10753,16 @@
       <c r="E374" s="17">
         <v>141</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <f t="shared" si="10"/>
+        <v>628</v>
+      </c>
+      <c r="G374" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="15">
         <v>0.69428240740740732</v>
       </c>
@@ -7771,8 +10778,16 @@
       <c r="E375" s="17">
         <v>140</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <f t="shared" si="10"/>
+        <v>671</v>
+      </c>
+      <c r="G375" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="15">
         <v>0.69428240740740732</v>
       </c>
@@ -7788,8 +10803,16 @@
       <c r="E376" s="17">
         <v>172</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <f t="shared" si="10"/>
+        <v>638</v>
+      </c>
+      <c r="G376" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="15">
         <v>0.69428240740740732</v>
       </c>
@@ -7805,8 +10828,16 @@
       <c r="E377" s="17">
         <v>219</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <f t="shared" si="10"/>
+        <v>815</v>
+      </c>
+      <c r="G377" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="15">
         <v>0.69428240740740732</v>
       </c>
@@ -7822,8 +10853,16 @@
       <c r="E378" s="17">
         <v>317</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <f t="shared" si="10"/>
+        <v>989</v>
+      </c>
+      <c r="G378" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="15">
         <v>0.69429398148148147</v>
       </c>
@@ -7839,8 +10878,16 @@
       <c r="E379" s="17">
         <v>354</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <f t="shared" si="10"/>
+        <v>1074</v>
+      </c>
+      <c r="G379" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="15">
         <v>0.69429398148148147</v>
       </c>
@@ -7856,8 +10903,16 @@
       <c r="E380" s="17">
         <v>290</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <f t="shared" si="10"/>
+        <v>932</v>
+      </c>
+      <c r="G380" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="15">
         <v>0.69429398148148147</v>
       </c>
@@ -7873,8 +10928,16 @@
       <c r="E381" s="17">
         <v>223</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <f t="shared" si="10"/>
+        <v>706</v>
+      </c>
+      <c r="G381" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="15">
         <v>0.69429398148148147</v>
       </c>
@@ -7890,8 +10953,16 @@
       <c r="E382" s="17">
         <v>102</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <f t="shared" si="10"/>
+        <v>434</v>
+      </c>
+      <c r="G382" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="15">
         <v>0.69429398148148147</v>
       </c>
@@ -7907,8 +10978,16 @@
       <c r="E383" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <f t="shared" si="10"/>
+        <v>201</v>
+      </c>
+      <c r="G383" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="15">
         <v>0.69430555555555562</v>
       </c>
@@ -7924,8 +11003,16 @@
       <c r="E384" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="G384" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="15">
         <v>0.69430555555555562</v>
       </c>
@@ -7941,8 +11028,16 @@
       <c r="E385" s="17">
         <v>29</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <f t="shared" si="10"/>
+        <v>266</v>
+      </c>
+      <c r="G385" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="15">
         <v>0.69430555555555562</v>
       </c>
@@ -7958,8 +11053,16 @@
       <c r="E386" s="17">
         <v>86</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <f t="shared" si="10"/>
+        <v>394</v>
+      </c>
+      <c r="G386" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="15">
         <v>0.69430555555555562</v>
       </c>
@@ -7975,8 +11078,16 @@
       <c r="E387" s="17">
         <v>113</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <f t="shared" ref="F387:F450" si="12">SUM(C387:E387)</f>
+        <v>461</v>
+      </c>
+      <c r="G387" s="17" t="str">
+        <f t="shared" ref="G387:G450" si="13">IF(F387&gt;200,"Fist","Relax")</f>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="15">
         <v>0.69430555555555562</v>
       </c>
@@ -7992,8 +11103,16 @@
       <c r="E388" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <f t="shared" si="12"/>
+        <v>470</v>
+      </c>
+      <c r="G388" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="15">
         <v>0.69431712962962966</v>
       </c>
@@ -8009,8 +11128,16 @@
       <c r="E389" s="17">
         <v>139</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <f t="shared" si="12"/>
+        <v>475</v>
+      </c>
+      <c r="G389" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="15">
         <v>0.69431712962962966</v>
       </c>
@@ -8026,8 +11153,16 @@
       <c r="E390" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <f t="shared" si="12"/>
+        <v>472</v>
+      </c>
+      <c r="G390" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="15">
         <v>0.69431712962962966</v>
       </c>
@@ -8043,8 +11178,16 @@
       <c r="E391" s="17">
         <v>143</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <f t="shared" si="12"/>
+        <v>463</v>
+      </c>
+      <c r="G391" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="15">
         <v>0.69431712962962966</v>
       </c>
@@ -8060,8 +11203,16 @@
       <c r="E392" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <f t="shared" si="12"/>
+        <v>428</v>
+      </c>
+      <c r="G392" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="15">
         <v>0.69431712962962966</v>
       </c>
@@ -8077,8 +11228,16 @@
       <c r="E393" s="17">
         <v>123</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <f t="shared" si="12"/>
+        <v>407</v>
+      </c>
+      <c r="G393" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="15">
         <v>0.6943287037037037</v>
       </c>
@@ -8094,8 +11253,16 @@
       <c r="E394" s="17">
         <v>98</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <f t="shared" si="12"/>
+        <v>341</v>
+      </c>
+      <c r="G394" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="15">
         <v>0.6943287037037037</v>
       </c>
@@ -8111,8 +11278,16 @@
       <c r="E395" s="17">
         <v>63</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <f t="shared" si="12"/>
+        <v>257</v>
+      </c>
+      <c r="G395" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="15">
         <v>0.6943287037037037</v>
       </c>
@@ -8128,8 +11303,16 @@
       <c r="E396" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <f t="shared" si="12"/>
+        <v>227</v>
+      </c>
+      <c r="G396" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="15">
         <v>0.6943287037037037</v>
       </c>
@@ -8145,8 +11328,16 @@
       <c r="E397" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="G397" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="15">
         <v>0.6943287037037037</v>
       </c>
@@ -8162,8 +11353,16 @@
       <c r="E398" s="17">
         <v>61</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="G398" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="15">
         <v>0.69434027777777774</v>
       </c>
@@ -8179,8 +11378,16 @@
       <c r="E399" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="G399" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="15">
         <v>0.69434027777777774</v>
       </c>
@@ -8196,8 +11403,16 @@
       <c r="E400" s="17">
         <v>45</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="G400" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="15">
         <v>0.69434027777777774</v>
       </c>
@@ -8213,8 +11428,16 @@
       <c r="E401" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="G401" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="15">
         <v>0.69434027777777774</v>
       </c>
@@ -8230,8 +11453,16 @@
       <c r="E402" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="G402" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="15">
         <v>0.69434027777777774</v>
       </c>
@@ -8247,8 +11478,16 @@
       <c r="E403" s="17">
         <v>120</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <f t="shared" si="12"/>
+        <v>422</v>
+      </c>
+      <c r="G403" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="15">
         <v>0.69435185185185189</v>
       </c>
@@ -8264,8 +11503,16 @@
       <c r="E404" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <f t="shared" si="12"/>
+        <v>546</v>
+      </c>
+      <c r="G404" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="15">
         <v>0.69435185185185189</v>
       </c>
@@ -8281,8 +11528,16 @@
       <c r="E405" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <f t="shared" si="12"/>
+        <v>704</v>
+      </c>
+      <c r="G405" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="15">
         <v>0.69435185185185189</v>
       </c>
@@ -8298,8 +11553,16 @@
       <c r="E406" s="17">
         <v>165</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <f t="shared" si="12"/>
+        <v>774</v>
+      </c>
+      <c r="G406" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="15">
         <v>0.69435185185185189</v>
       </c>
@@ -8315,8 +11578,16 @@
       <c r="E407" s="17">
         <v>141</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <f t="shared" si="12"/>
+        <v>612</v>
+      </c>
+      <c r="G407" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="15">
         <v>0.69435185185185189</v>
       </c>
@@ -8332,8 +11603,16 @@
       <c r="E408" s="17">
         <v>140</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <f t="shared" si="12"/>
+        <v>758</v>
+      </c>
+      <c r="G408" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="15">
         <v>0.69436342592592604</v>
       </c>
@@ -8349,8 +11628,16 @@
       <c r="E409" s="17">
         <v>178</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <f t="shared" si="12"/>
+        <v>791</v>
+      </c>
+      <c r="G409" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="15">
         <v>0.69436342592592604</v>
       </c>
@@ -8366,8 +11653,16 @@
       <c r="E410" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <f t="shared" si="12"/>
+        <v>710</v>
+      </c>
+      <c r="G410" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="15">
         <v>0.69436342592592604</v>
       </c>
@@ -8383,8 +11678,16 @@
       <c r="E411" s="17">
         <v>152</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <f t="shared" si="12"/>
+        <v>594</v>
+      </c>
+      <c r="G411" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="15">
         <v>0.69436342592592604</v>
       </c>
@@ -8400,8 +11703,16 @@
       <c r="E412" s="17">
         <v>147</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <f t="shared" si="12"/>
+        <v>615</v>
+      </c>
+      <c r="G412" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="15">
         <v>0.69436342592592604</v>
       </c>
@@ -8417,8 +11728,16 @@
       <c r="E413" s="17">
         <v>186</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <f t="shared" si="12"/>
+        <v>732</v>
+      </c>
+      <c r="G413" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="15">
         <v>0.69437499999999996</v>
       </c>
@@ -8434,8 +11753,16 @@
       <c r="E414" s="17">
         <v>141</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <f t="shared" si="12"/>
+        <v>610</v>
+      </c>
+      <c r="G414" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="15">
         <v>0.69437499999999996</v>
       </c>
@@ -8451,8 +11778,16 @@
       <c r="E415" s="17">
         <v>91</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <f t="shared" si="12"/>
+        <v>397</v>
+      </c>
+      <c r="G415" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="15">
         <v>0.69437499999999996</v>
       </c>
@@ -8468,8 +11803,16 @@
       <c r="E416" s="17">
         <v>93</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <f t="shared" si="12"/>
+        <v>294</v>
+      </c>
+      <c r="G416" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="15">
         <v>0.69437499999999996</v>
       </c>
@@ -8485,8 +11828,16 @@
       <c r="E417" s="17">
         <v>99</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <f t="shared" si="12"/>
+        <v>287</v>
+      </c>
+      <c r="G417" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="15">
         <v>0.69437499999999996</v>
       </c>
@@ -8502,8 +11853,16 @@
       <c r="E418" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <f t="shared" si="12"/>
+        <v>276</v>
+      </c>
+      <c r="G418" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="15">
         <v>0.69438657407407411</v>
       </c>
@@ -8519,8 +11878,16 @@
       <c r="E419" s="17">
         <v>92</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <f t="shared" si="12"/>
+        <v>242</v>
+      </c>
+      <c r="G419" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="15">
         <v>0.69438657407407411</v>
       </c>
@@ -8536,8 +11903,16 @@
       <c r="E420" s="17">
         <v>85</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <f t="shared" si="12"/>
+        <v>261</v>
+      </c>
+      <c r="G420" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="15">
         <v>0.69438657407407411</v>
       </c>
@@ -8553,8 +11928,16 @@
       <c r="E421" s="17">
         <v>78</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <f t="shared" si="12"/>
+        <v>303</v>
+      </c>
+      <c r="G421" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="15">
         <v>0.69438657407407411</v>
       </c>
@@ -8570,8 +11953,16 @@
       <c r="E422" s="17">
         <v>55</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <f t="shared" si="12"/>
+        <v>297</v>
+      </c>
+      <c r="G422" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="15">
         <v>0.69438657407407411</v>
       </c>
@@ -8587,8 +11978,16 @@
       <c r="E423" s="17">
         <v>28</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="G423" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="15">
         <v>0.69439814814814815</v>
       </c>
@@ -8604,8 +12003,16 @@
       <c r="E424" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="G424" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="15">
         <v>0.69439814814814815</v>
       </c>
@@ -8621,8 +12028,16 @@
       <c r="E425" s="17">
         <v>39</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="G425" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="15">
         <v>0.69439814814814815</v>
       </c>
@@ -8638,8 +12053,16 @@
       <c r="E426" s="17">
         <v>57</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="G426" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="15">
         <v>0.69439814814814815</v>
       </c>
@@ -8655,8 +12078,16 @@
       <c r="E427" s="17">
         <v>67</v>
       </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="G427" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="15">
         <v>0.69439814814814815</v>
       </c>
@@ -8672,8 +12103,16 @@
       <c r="E428" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <f t="shared" si="12"/>
+        <v>213</v>
+      </c>
+      <c r="G428" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="15">
         <v>0.69440972222222219</v>
       </c>
@@ -8689,8 +12128,16 @@
       <c r="E429" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <f t="shared" si="12"/>
+        <v>235</v>
+      </c>
+      <c r="G429" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="15">
         <v>0.69440972222222219</v>
       </c>
@@ -8706,8 +12153,16 @@
       <c r="E430" s="17">
         <v>87</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <f t="shared" si="12"/>
+        <v>254</v>
+      </c>
+      <c r="G430" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="15">
         <v>0.69440972222222219</v>
       </c>
@@ -8723,8 +12178,16 @@
       <c r="E431" s="17">
         <v>84</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <f t="shared" si="12"/>
+        <v>243</v>
+      </c>
+      <c r="G431" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="15">
         <v>0.69440972222222219</v>
       </c>
@@ -8740,8 +12203,16 @@
       <c r="E432" s="17">
         <v>78</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <f t="shared" si="12"/>
+        <v>216</v>
+      </c>
+      <c r="G432" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="15">
         <v>0.69440972222222219</v>
       </c>
@@ -8757,8 +12228,16 @@
       <c r="E433" s="17">
         <v>77</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <f t="shared" si="12"/>
+        <v>226</v>
+      </c>
+      <c r="G433" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="15">
         <v>0.69442129629629623</v>
       </c>
@@ -8774,8 +12253,16 @@
       <c r="E434" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <f t="shared" si="12"/>
+        <v>221</v>
+      </c>
+      <c r="G434" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="15">
         <v>0.69442129629629623</v>
       </c>
@@ -8791,8 +12278,16 @@
       <c r="E435" s="17">
         <v>81</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+      <c r="G435" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="15">
         <v>0.69442129629629623</v>
       </c>
@@ -8808,8 +12303,16 @@
       <c r="E436" s="17">
         <v>81</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <f t="shared" si="12"/>
+        <v>215</v>
+      </c>
+      <c r="G436" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="15">
         <v>0.69442129629629623</v>
       </c>
@@ -8825,8 +12328,16 @@
       <c r="E437" s="17">
         <v>76</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <f t="shared" si="12"/>
+        <v>212</v>
+      </c>
+      <c r="G437" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="15">
         <v>0.69442129629629623</v>
       </c>
@@ -8842,8 +12353,16 @@
       <c r="E438" s="17">
         <v>77</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="G438" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="15">
         <v>0.69443287037037038</v>
       </c>
@@ -8859,8 +12378,16 @@
       <c r="E439" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <f t="shared" si="12"/>
+        <v>209</v>
+      </c>
+      <c r="G439" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="15">
         <v>0.69443287037037038</v>
       </c>
@@ -8876,8 +12403,16 @@
       <c r="E440" s="17">
         <v>59</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="G440" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="15">
         <v>0.69443287037037038</v>
       </c>
@@ -8893,8 +12428,16 @@
       <c r="E441" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="G441" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="15">
         <v>0.69443287037037038</v>
       </c>
@@ -8910,8 +12453,16 @@
       <c r="E442" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="G442" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="15">
         <v>0.69443287037037038</v>
       </c>
@@ -8927,8 +12478,16 @@
       <c r="E443" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="G443" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="15">
         <v>0.69444444444444453</v>
       </c>
@@ -8944,8 +12503,16 @@
       <c r="E444" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="G444" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="15">
         <v>0.69444444444444453</v>
       </c>
@@ -8961,8 +12528,16 @@
       <c r="E445" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="G445" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="15">
         <v>0.69444444444444453</v>
       </c>
@@ -8978,8 +12553,16 @@
       <c r="E446" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="G446" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="15">
         <v>0.69444444444444453</v>
       </c>
@@ -8995,8 +12578,16 @@
       <c r="E447" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="G447" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="15">
         <v>0.69444444444444453</v>
       </c>
@@ -9012,8 +12603,16 @@
       <c r="E448" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="G448" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="15">
         <v>0.69445601851851846</v>
       </c>
@@ -9029,8 +12628,16 @@
       <c r="E449" s="17">
         <v>60</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <f t="shared" si="12"/>
+        <v>245</v>
+      </c>
+      <c r="G449" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="15">
         <v>0.69445601851851846</v>
       </c>
@@ -9046,8 +12653,16 @@
       <c r="E450" s="17">
         <v>67</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <f t="shared" si="12"/>
+        <v>317</v>
+      </c>
+      <c r="G450" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="15">
         <v>0.69445601851851846</v>
       </c>
@@ -9063,8 +12678,16 @@
       <c r="E451" s="17">
         <v>126</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F451">
+        <f t="shared" ref="F451:F509" si="14">SUM(C451:E451)</f>
+        <v>495</v>
+      </c>
+      <c r="G451" s="17" t="str">
+        <f t="shared" ref="G451:G509" si="15">IF(F451&gt;200,"Fist","Relax")</f>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="15">
         <v>0.69445601851851846</v>
       </c>
@@ -9080,8 +12703,16 @@
       <c r="E452" s="17">
         <v>139</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F452">
+        <f t="shared" si="14"/>
+        <v>613</v>
+      </c>
+      <c r="G452" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="15">
         <v>0.69445601851851846</v>
       </c>
@@ -9097,8 +12728,16 @@
       <c r="E453" s="17">
         <v>133</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F453">
+        <f t="shared" si="14"/>
+        <v>728</v>
+      </c>
+      <c r="G453" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="15">
         <v>0.69446759259259261</v>
       </c>
@@ -9114,8 +12753,16 @@
       <c r="E454" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F454">
+        <f t="shared" si="14"/>
+        <v>705</v>
+      </c>
+      <c r="G454" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="15">
         <v>0.69446759259259261</v>
       </c>
@@ -9131,8 +12778,16 @@
       <c r="E455" s="17">
         <v>142</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F455">
+        <f t="shared" si="14"/>
+        <v>672</v>
+      </c>
+      <c r="G455" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="15">
         <v>0.69446759259259261</v>
       </c>
@@ -9148,8 +12803,16 @@
       <c r="E456" s="17">
         <v>136</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F456">
+        <f t="shared" si="14"/>
+        <v>632</v>
+      </c>
+      <c r="G456" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="15">
         <v>0.69446759259259261</v>
       </c>
@@ -9165,8 +12828,16 @@
       <c r="E457" s="17">
         <v>133</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F457">
+        <f t="shared" si="14"/>
+        <v>620</v>
+      </c>
+      <c r="G457" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="15">
         <v>0.69446759259259261</v>
       </c>
@@ -9182,8 +12853,16 @@
       <c r="E458" s="17">
         <v>132</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F458">
+        <f t="shared" si="14"/>
+        <v>665</v>
+      </c>
+      <c r="G458" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="15">
         <v>0.69447916666666665</v>
       </c>
@@ -9199,8 +12878,16 @@
       <c r="E459" s="17">
         <v>152</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F459">
+        <f t="shared" si="14"/>
+        <v>733</v>
+      </c>
+      <c r="G459" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="15">
         <v>0.69447916666666665</v>
       </c>
@@ -9216,8 +12903,16 @@
       <c r="E460" s="17">
         <v>134</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <f t="shared" si="14"/>
+        <v>584</v>
+      </c>
+      <c r="G460" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="15">
         <v>0.69447916666666665</v>
       </c>
@@ -9233,8 +12928,16 @@
       <c r="E461" s="17">
         <v>130</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F461">
+        <f t="shared" si="14"/>
+        <v>521</v>
+      </c>
+      <c r="G461" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="15">
         <v>0.69447916666666665</v>
       </c>
@@ -9250,8 +12953,16 @@
       <c r="E462" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F462">
+        <f t="shared" si="14"/>
+        <v>267</v>
+      </c>
+      <c r="G462" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="15">
         <v>0.69447916666666665</v>
       </c>
@@ -9267,8 +12978,16 @@
       <c r="E463" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F463">
+        <f t="shared" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="G463" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="15">
         <v>0.6944907407407408</v>
       </c>
@@ -9284,8 +13003,16 @@
       <c r="E464" s="17">
         <v>61</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F464">
+        <f t="shared" si="14"/>
+        <v>262</v>
+      </c>
+      <c r="G464" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="15">
         <v>0.6944907407407408</v>
       </c>
@@ -9301,8 +13028,16 @@
       <c r="E465" s="17">
         <v>45</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F465">
+        <f t="shared" si="14"/>
+        <v>237</v>
+      </c>
+      <c r="G465" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="15">
         <v>0.6944907407407408</v>
       </c>
@@ -9318,8 +13053,16 @@
       <c r="E466" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F466">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+      <c r="G466" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="15">
         <v>0.6944907407407408</v>
       </c>
@@ -9335,8 +13078,16 @@
       <c r="E467" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F467">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="G467" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="15">
         <v>0.6944907407407408</v>
       </c>
@@ -9352,8 +13103,16 @@
       <c r="E468" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F468">
+        <f t="shared" si="14"/>
+        <v>129</v>
+      </c>
+      <c r="G468" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="15">
         <v>0.69450231481481473</v>
       </c>
@@ -9369,8 +13128,16 @@
       <c r="E469" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F469">
+        <f t="shared" si="14"/>
+        <v>136</v>
+      </c>
+      <c r="G469" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="15">
         <v>0.69450231481481473</v>
       </c>
@@ -9386,8 +13153,16 @@
       <c r="E470" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F470">
+        <f t="shared" si="14"/>
+        <v>137</v>
+      </c>
+      <c r="G470" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="15">
         <v>0.69450231481481473</v>
       </c>
@@ -9403,8 +13178,16 @@
       <c r="E471" s="17">
         <v>45</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F471">
+        <f t="shared" si="14"/>
+        <v>181</v>
+      </c>
+      <c r="G471" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="15">
         <v>0.69450231481481473</v>
       </c>
@@ -9420,8 +13203,16 @@
       <c r="E472" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F472">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+      <c r="G472" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="15">
         <v>0.69450231481481473</v>
       </c>
@@ -9437,8 +13228,16 @@
       <c r="E473" s="17">
         <v>53</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F473">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+      <c r="G473" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="15">
         <v>0.69451388888888888</v>
       </c>
@@ -9454,8 +13253,16 @@
       <c r="E474" s="17">
         <v>58</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F474">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="G474" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="15">
         <v>0.69451388888888888</v>
       </c>
@@ -9471,8 +13278,16 @@
       <c r="E475" s="17">
         <v>70</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F475">
+        <f t="shared" si="14"/>
+        <v>213</v>
+      </c>
+      <c r="G475" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="15">
         <v>0.69451388888888888</v>
       </c>
@@ -9488,8 +13303,16 @@
       <c r="E476" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F476">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="G476" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="15">
         <v>0.69451388888888888</v>
       </c>
@@ -9505,8 +13328,16 @@
       <c r="E477" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="G477" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="15">
         <v>0.69451388888888888</v>
       </c>
@@ -9522,8 +13353,16 @@
       <c r="E478" s="17">
         <v>69</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="G478" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="15">
         <v>0.69452546296296302</v>
       </c>
@@ -9539,8 +13378,16 @@
       <c r="E479" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F479">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="G479" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="15">
         <v>0.69452546296296302</v>
       </c>
@@ -9556,8 +13403,16 @@
       <c r="E480" s="17">
         <v>79</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F480">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="G480" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="15">
         <v>0.69452546296296302</v>
       </c>
@@ -9573,8 +13428,16 @@
       <c r="E481" s="17">
         <v>76</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F481">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="G481" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="15">
         <v>0.69452546296296302</v>
       </c>
@@ -9590,8 +13453,16 @@
       <c r="E482" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F482">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+      <c r="G482" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="15">
         <v>0.69453703703703706</v>
       </c>
@@ -9607,8 +13478,16 @@
       <c r="E483" s="17">
         <v>61</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F483">
+        <f t="shared" si="14"/>
+        <v>162</v>
+      </c>
+      <c r="G483" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="15">
         <v>0.69453703703703706</v>
       </c>
@@ -9624,8 +13503,16 @@
       <c r="E484" s="17">
         <v>60</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+      <c r="G484" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="15">
         <v>0.69453703703703706</v>
       </c>
@@ -9641,8 +13528,16 @@
       <c r="E485" s="17">
         <v>56</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F485">
+        <f t="shared" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="G485" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="15">
         <v>0.69453703703703706</v>
       </c>
@@ -9658,8 +13553,16 @@
       <c r="E486" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F486">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="G486" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="15">
         <v>0.69453703703703706</v>
       </c>
@@ -9675,8 +13578,16 @@
       <c r="E487" s="17">
         <v>38</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F487">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
+      <c r="G487" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="15">
         <v>0.6945486111111111</v>
       </c>
@@ -9692,8 +13603,16 @@
       <c r="E488" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F488">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="G488" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="15">
         <v>0.6945486111111111</v>
       </c>
@@ -9709,8 +13628,16 @@
       <c r="E489" s="17">
         <v>54</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F489">
+        <f t="shared" si="14"/>
+        <v>234</v>
+      </c>
+      <c r="G489" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="15">
         <v>0.6945486111111111</v>
       </c>
@@ -9726,8 +13653,16 @@
       <c r="E490" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F490">
+        <f t="shared" si="14"/>
+        <v>317</v>
+      </c>
+      <c r="G490" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="15">
         <v>0.6945486111111111</v>
       </c>
@@ -9743,8 +13678,16 @@
       <c r="E491" s="17">
         <v>94</v>
       </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F491">
+        <f t="shared" si="14"/>
+        <v>341</v>
+      </c>
+      <c r="G491" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="15">
         <v>0.6945486111111111</v>
       </c>
@@ -9760,8 +13703,16 @@
       <c r="E492" s="17">
         <v>97</v>
       </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F492">
+        <f t="shared" si="14"/>
+        <v>399</v>
+      </c>
+      <c r="G492" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="15">
         <v>0.69456018518518514</v>
       </c>
@@ -9777,8 +13728,16 @@
       <c r="E493" s="17">
         <v>102</v>
       </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F493">
+        <f t="shared" si="14"/>
+        <v>471</v>
+      </c>
+      <c r="G493" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="15">
         <v>0.69456018518518514</v>
       </c>
@@ -9794,8 +13753,16 @@
       <c r="E494" s="17">
         <v>89</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494">
+        <f t="shared" si="14"/>
+        <v>471</v>
+      </c>
+      <c r="G494" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="15">
         <v>0.69456018518518514</v>
       </c>
@@ -9811,8 +13778,16 @@
       <c r="E495" s="17">
         <v>147</v>
       </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F495">
+        <f t="shared" si="14"/>
+        <v>625</v>
+      </c>
+      <c r="G495" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="15">
         <v>0.69456018518518514</v>
       </c>
@@ -9828,8 +13803,16 @@
       <c r="E496" s="17">
         <v>157</v>
       </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F496">
+        <f t="shared" si="14"/>
+        <v>594</v>
+      </c>
+      <c r="G496" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="15">
         <v>0.69456018518518514</v>
       </c>
@@ -9845,8 +13828,16 @@
       <c r="E497" s="17">
         <v>140</v>
       </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F497">
+        <f t="shared" si="14"/>
+        <v>574</v>
+      </c>
+      <c r="G497" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="15">
         <v>0.69457175925925929</v>
       </c>
@@ -9862,8 +13853,16 @@
       <c r="E498" s="17">
         <v>131</v>
       </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F498">
+        <f t="shared" si="14"/>
+        <v>637</v>
+      </c>
+      <c r="G498" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="15">
         <v>0.69457175925925929</v>
       </c>
@@ -9879,8 +13878,16 @@
       <c r="E499" s="17">
         <v>182</v>
       </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F499">
+        <f t="shared" si="14"/>
+        <v>745</v>
+      </c>
+      <c r="G499" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="15">
         <v>0.69457175925925929</v>
       </c>
@@ -9896,8 +13903,16 @@
       <c r="E500" s="17">
         <v>195</v>
       </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F500">
+        <f t="shared" si="14"/>
+        <v>856</v>
+      </c>
+      <c r="G500" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="15">
         <v>0.69457175925925929</v>
       </c>
@@ -9913,8 +13928,16 @@
       <c r="E501" s="17">
         <v>189</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F501">
+        <f t="shared" si="14"/>
+        <v>738</v>
+      </c>
+      <c r="G501" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="15">
         <v>0.69457175925925929</v>
       </c>
@@ -9930,8 +13953,16 @@
       <c r="E502" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F502">
+        <f t="shared" si="14"/>
+        <v>541</v>
+      </c>
+      <c r="G502" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="15">
         <v>0.69458333333333344</v>
       </c>
@@ -9947,8 +13978,16 @@
       <c r="E503" s="17">
         <v>163</v>
       </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F503">
+        <f t="shared" si="14"/>
+        <v>612</v>
+      </c>
+      <c r="G503" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="15">
         <v>0.69458333333333344</v>
       </c>
@@ -9964,8 +14003,16 @@
       <c r="E504" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504">
+        <f t="shared" si="14"/>
+        <v>699</v>
+      </c>
+      <c r="G504" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="15">
         <v>0.69458333333333344</v>
       </c>
@@ -9981,8 +14028,16 @@
       <c r="E505" s="17">
         <v>147</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505">
+        <f t="shared" si="14"/>
+        <v>669</v>
+      </c>
+      <c r="G505" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="15">
         <v>0.69458333333333344</v>
       </c>
@@ -9998,8 +14053,16 @@
       <c r="E506" s="17">
         <v>109</v>
       </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F506">
+        <f t="shared" si="14"/>
+        <v>498</v>
+      </c>
+      <c r="G506" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="15">
         <v>0.69458333333333344</v>
       </c>
@@ -10015,8 +14078,16 @@
       <c r="E507" s="17">
         <v>67</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507">
+        <f t="shared" si="14"/>
+        <v>284</v>
+      </c>
+      <c r="G507" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Fist</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="15">
         <v>0.69459490740740737</v>
       </c>
@@ -10032,8 +14103,16 @@
       <c r="E508" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508">
+        <f t="shared" si="14"/>
+        <v>155</v>
+      </c>
+      <c r="G508" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="15">
         <v>0.69459490740740737</v>
       </c>
@@ -10048,6 +14127,14 @@
       </c>
       <c r="E509" s="17">
         <v>25</v>
+      </c>
+      <c r="F509">
+        <f t="shared" si="14"/>
+        <v>126</v>
+      </c>
+      <c r="G509" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>Relax</v>
       </c>
     </row>
   </sheetData>
@@ -10058,7 +14145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -10066,22 +14153,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -10108,7 +14195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -10116,13 +14203,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -10130,26 +14217,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="19"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
     </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
     </row>
   </sheetData>
